--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.644713304004619</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H2">
-        <v>0.644713304004619</v>
+        <v>2.035544</v>
       </c>
       <c r="I2">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508921</v>
       </c>
       <c r="J2">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508923</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.4640859103973</v>
+        <v>33.55076233333333</v>
       </c>
       <c r="N2">
-        <v>27.4640859103973</v>
+        <v>100.652287</v>
       </c>
       <c r="O2">
-        <v>0.027448635565845</v>
+        <v>0.03243626870475903</v>
       </c>
       <c r="P2">
-        <v>0.027448635565845</v>
+        <v>0.03243626870475903</v>
       </c>
       <c r="Q2">
-        <v>17.70646156875895</v>
+        <v>22.76468432101422</v>
       </c>
       <c r="R2">
-        <v>17.70646156875895</v>
+        <v>204.882158889128</v>
       </c>
       <c r="S2">
-        <v>0.01494685952352416</v>
+        <v>0.01710658609919912</v>
       </c>
       <c r="T2">
-        <v>0.01494685952352416</v>
+        <v>0.01710658609919913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.644713304004619</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H3">
-        <v>0.644713304004619</v>
+        <v>2.035544</v>
       </c>
       <c r="I3">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508921</v>
       </c>
       <c r="J3">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508923</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>90.7364405578228</v>
+        <v>90.83439633333334</v>
       </c>
       <c r="N3">
-        <v>90.7364405578228</v>
+        <v>272.503189</v>
       </c>
       <c r="O3">
-        <v>0.09068539537559311</v>
+        <v>0.08781704742891472</v>
       </c>
       <c r="P3">
-        <v>0.09068539537559311</v>
+        <v>0.08781704742891472</v>
       </c>
       <c r="Q3">
-        <v>58.49899038565265</v>
+        <v>61.63247014997955</v>
       </c>
       <c r="R3">
-        <v>58.49899038565265</v>
+        <v>554.692231349816</v>
       </c>
       <c r="S3">
-        <v>0.04938175751077666</v>
+        <v>0.0463138931451685</v>
       </c>
       <c r="T3">
-        <v>0.04938175751077666</v>
+        <v>0.04631389314516851</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.644713304004619</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H4">
-        <v>0.644713304004619</v>
+        <v>2.035544</v>
       </c>
       <c r="I4">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508921</v>
       </c>
       <c r="J4">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508923</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>310.998753725435</v>
+        <v>334.082738</v>
       </c>
       <c r="N4">
-        <v>310.998753725435</v>
+        <v>1002.248214</v>
       </c>
       <c r="O4">
-        <v>0.3108237965862798</v>
+        <v>0.3229851337423543</v>
       </c>
       <c r="P4">
-        <v>0.3108237965862798</v>
+        <v>0.3229851337423543</v>
       </c>
       <c r="Q4">
-        <v>200.505034055644</v>
+        <v>226.6800376131573</v>
       </c>
       <c r="R4">
-        <v>200.505034055644</v>
+        <v>2040.120338518416</v>
       </c>
       <c r="S4">
-        <v>0.1692557581960286</v>
+        <v>0.1703393522052763</v>
       </c>
       <c r="T4">
-        <v>0.1692557581960286</v>
+        <v>0.1703393522052763</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.644713304004619</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H5">
-        <v>0.644713304004619</v>
+        <v>2.035544</v>
       </c>
       <c r="I5">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508921</v>
       </c>
       <c r="J5">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508923</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>313.234386438168</v>
+        <v>313.5339353333333</v>
       </c>
       <c r="N5">
-        <v>313.234386438168</v>
+        <v>940.601806</v>
       </c>
       <c r="O5">
-        <v>0.3130581716093953</v>
+        <v>0.3031189239008312</v>
       </c>
       <c r="P5">
-        <v>0.3130581716093953</v>
+        <v>0.3031189239008312</v>
       </c>
       <c r="Q5">
-        <v>201.9463762084109</v>
+        <v>212.7373736213848</v>
       </c>
       <c r="R5">
-        <v>201.9463762084109</v>
+        <v>1914.636362592464</v>
       </c>
       <c r="S5">
-        <v>0.1704724631033915</v>
+        <v>0.1598620981101124</v>
       </c>
       <c r="T5">
-        <v>0.1704724631033915</v>
+        <v>0.1598620981101125</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.644713304004619</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H6">
-        <v>0.644713304004619</v>
+        <v>2.035544</v>
       </c>
       <c r="I6">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508921</v>
       </c>
       <c r="J6">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508923</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>217.629348090445</v>
+        <v>219.6913653333333</v>
       </c>
       <c r="N6">
-        <v>217.629348090445</v>
+        <v>659.0740959999999</v>
       </c>
       <c r="O6">
-        <v>0.2175069173485787</v>
+        <v>0.2123936287130977</v>
       </c>
       <c r="P6">
-        <v>0.2175069173485787</v>
+        <v>0.2123936287130977</v>
       </c>
       <c r="Q6">
-        <v>140.3085360557621</v>
+        <v>149.0638135186915</v>
       </c>
       <c r="R6">
-        <v>140.3085360557621</v>
+        <v>1341.574321668224</v>
       </c>
       <c r="S6">
-        <v>0.1184410544271038</v>
+        <v>0.1120144221757806</v>
       </c>
       <c r="T6">
-        <v>0.1184410544271038</v>
+        <v>0.1120144221757806</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.644713304004619</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H7">
-        <v>0.644713304004619</v>
+        <v>2.035544</v>
       </c>
       <c r="I7">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508921</v>
       </c>
       <c r="J7">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508923</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.49986733849</v>
+        <v>42.666292</v>
       </c>
       <c r="N7">
-        <v>40.49986733849</v>
+        <v>127.998876</v>
       </c>
       <c r="O7">
-        <v>0.04047708351430798</v>
+        <v>0.04124899751004298</v>
       </c>
       <c r="P7">
-        <v>0.04047708351430798</v>
+        <v>0.04124899751004298</v>
       </c>
       <c r="Q7">
-        <v>26.11080328354664</v>
+        <v>28.94970489428266</v>
       </c>
       <c r="R7">
-        <v>26.11080328354664</v>
+        <v>260.5473440485439</v>
       </c>
       <c r="S7">
-        <v>0.02204136084502283</v>
+        <v>0.0217543372153552</v>
       </c>
       <c r="T7">
-        <v>0.02204136084502283</v>
+        <v>0.02175433721535521</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.53924781493297</v>
+        <v>0.045173</v>
       </c>
       <c r="H8">
-        <v>0.53924781493297</v>
+        <v>0.135519</v>
       </c>
       <c r="I8">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="J8">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.4640859103973</v>
+        <v>33.55076233333333</v>
       </c>
       <c r="N8">
-        <v>27.4640859103973</v>
+        <v>100.652287</v>
       </c>
       <c r="O8">
-        <v>0.027448635565845</v>
+        <v>0.03243626870475903</v>
       </c>
       <c r="P8">
-        <v>0.027448635565845</v>
+        <v>0.03243626870475903</v>
       </c>
       <c r="Q8">
-        <v>14.80994831631311</v>
+        <v>1.515588586883666</v>
       </c>
       <c r="R8">
-        <v>14.80994831631311</v>
+        <v>13.640297281953</v>
       </c>
       <c r="S8">
-        <v>0.01250177604232084</v>
+        <v>0.001138893308902862</v>
       </c>
       <c r="T8">
-        <v>0.01250177604232084</v>
+        <v>0.001138893308902862</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.53924781493297</v>
+        <v>0.045173</v>
       </c>
       <c r="H9">
-        <v>0.53924781493297</v>
+        <v>0.135519</v>
       </c>
       <c r="I9">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="J9">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.7364405578228</v>
+        <v>90.83439633333334</v>
       </c>
       <c r="N9">
-        <v>90.7364405578228</v>
+        <v>272.503189</v>
       </c>
       <c r="O9">
-        <v>0.09068539537559311</v>
+        <v>0.08781704742891472</v>
       </c>
       <c r="P9">
-        <v>0.09068539537559311</v>
+        <v>0.08781704742891472</v>
       </c>
       <c r="Q9">
-        <v>48.92942730560127</v>
+        <v>4.103262185565667</v>
       </c>
       <c r="R9">
-        <v>48.92942730560127</v>
+        <v>36.929359670091</v>
       </c>
       <c r="S9">
-        <v>0.04130363786481644</v>
+        <v>0.003083407917067915</v>
       </c>
       <c r="T9">
-        <v>0.04130363786481644</v>
+        <v>0.003083407917067915</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.53924781493297</v>
+        <v>0.045173</v>
       </c>
       <c r="H10">
-        <v>0.53924781493297</v>
+        <v>0.135519</v>
       </c>
       <c r="I10">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="J10">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>310.998753725435</v>
+        <v>334.082738</v>
       </c>
       <c r="N10">
-        <v>310.998753725435</v>
+        <v>1002.248214</v>
       </c>
       <c r="O10">
-        <v>0.3108237965862798</v>
+        <v>0.3229851337423543</v>
       </c>
       <c r="P10">
-        <v>0.3108237965862798</v>
+        <v>0.3229851337423543</v>
       </c>
       <c r="Q10">
-        <v>167.7053983933177</v>
+        <v>15.091519523674</v>
       </c>
       <c r="R10">
-        <v>167.7053983933177</v>
+        <v>135.823675713066</v>
       </c>
       <c r="S10">
-        <v>0.1415680383902512</v>
+        <v>0.01134056481781128</v>
       </c>
       <c r="T10">
-        <v>0.1415680383902512</v>
+        <v>0.01134056481781128</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.53924781493297</v>
+        <v>0.045173</v>
       </c>
       <c r="H11">
-        <v>0.53924781493297</v>
+        <v>0.135519</v>
       </c>
       <c r="I11">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="J11">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>313.234386438168</v>
+        <v>313.5339353333333</v>
       </c>
       <c r="N11">
-        <v>313.234386438168</v>
+        <v>940.601806</v>
       </c>
       <c r="O11">
-        <v>0.3130581716093953</v>
+        <v>0.3031189239008312</v>
       </c>
       <c r="P11">
-        <v>0.3130581716093953</v>
+        <v>0.3031189239008312</v>
       </c>
       <c r="Q11">
-        <v>168.9109584486516</v>
+        <v>14.16326846081266</v>
       </c>
       <c r="R11">
-        <v>168.9109584486516</v>
+        <v>127.469416147314</v>
       </c>
       <c r="S11">
-        <v>0.1425857085060038</v>
+        <v>0.01064302794426666</v>
       </c>
       <c r="T11">
-        <v>0.1425857085060038</v>
+        <v>0.01064302794426666</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1160,49 +1160,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.53924781493297</v>
+        <v>0.045173</v>
       </c>
       <c r="H12">
-        <v>0.53924781493297</v>
+        <v>0.135519</v>
       </c>
       <c r="I12">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="J12">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>217.629348090445</v>
+        <v>219.6913653333333</v>
       </c>
       <c r="N12">
-        <v>217.629348090445</v>
+        <v>659.0740959999999</v>
       </c>
       <c r="O12">
-        <v>0.2175069173485787</v>
+        <v>0.2123936287130977</v>
       </c>
       <c r="P12">
-        <v>0.2175069173485787</v>
+        <v>0.2123936287130977</v>
       </c>
       <c r="Q12">
-        <v>117.3561504230592</v>
+        <v>9.924118046202667</v>
       </c>
       <c r="R12">
-        <v>117.3561504230592</v>
+        <v>89.317062415824</v>
       </c>
       <c r="S12">
-        <v>0.09906586292147483</v>
+        <v>0.00745750643505599</v>
       </c>
       <c r="T12">
-        <v>0.09906586292147483</v>
+        <v>0.00745750643505599</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.045173</v>
+      </c>
+      <c r="H13">
+        <v>0.135519</v>
+      </c>
+      <c r="I13">
+        <v>0.03511172383202523</v>
+      </c>
+      <c r="J13">
+        <v>0.03511172383202523</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>42.666292</v>
+      </c>
+      <c r="N13">
+        <v>127.998876</v>
+      </c>
+      <c r="O13">
+        <v>0.04124899751004298</v>
+      </c>
+      <c r="P13">
+        <v>0.04124899751004298</v>
+      </c>
+      <c r="Q13">
+        <v>1.927364408516</v>
+      </c>
+      <c r="R13">
+        <v>17.346279676644</v>
+      </c>
+      <c r="S13">
+        <v>0.001448323408920526</v>
+      </c>
+      <c r="T13">
+        <v>0.001448323408920526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5628626666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.688588</v>
+      </c>
+      <c r="I14">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="J14">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>33.55076233333333</v>
+      </c>
+      <c r="N14">
+        <v>100.652287</v>
+      </c>
+      <c r="O14">
+        <v>0.03243626870475903</v>
+      </c>
+      <c r="P14">
+        <v>0.03243626870475903</v>
+      </c>
+      <c r="Q14">
+        <v>18.88447155563955</v>
+      </c>
+      <c r="R14">
+        <v>169.960244000756</v>
+      </c>
+      <c r="S14">
+        <v>0.01419078929665704</v>
+      </c>
+      <c r="T14">
+        <v>0.01419078929665704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5628626666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.688588</v>
+      </c>
+      <c r="I15">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="J15">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>90.83439633333334</v>
+      </c>
+      <c r="N15">
+        <v>272.503189</v>
+      </c>
+      <c r="O15">
+        <v>0.08781704742891472</v>
+      </c>
+      <c r="P15">
+        <v>0.08781704742891472</v>
+      </c>
+      <c r="Q15">
+        <v>51.12729054523689</v>
+      </c>
+      <c r="R15">
+        <v>460.145614907132</v>
+      </c>
+      <c r="S15">
+        <v>0.0384197463666783</v>
+      </c>
+      <c r="T15">
+        <v>0.0384197463666783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5628626666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.688588</v>
+      </c>
+      <c r="I16">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="J16">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>334.082738</v>
+      </c>
+      <c r="N16">
+        <v>1002.248214</v>
+      </c>
+      <c r="O16">
+        <v>0.3229851337423543</v>
+      </c>
+      <c r="P16">
+        <v>0.3229851337423543</v>
+      </c>
+      <c r="Q16">
+        <v>188.0427007979813</v>
+      </c>
+      <c r="R16">
+        <v>1692.384307181832</v>
+      </c>
+      <c r="S16">
+        <v>0.1413052167192667</v>
+      </c>
+      <c r="T16">
+        <v>0.1413052167192667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.53924781493297</v>
-      </c>
-      <c r="H13">
-        <v>0.53924781493297</v>
-      </c>
-      <c r="I13">
-        <v>0.4554607463941522</v>
-      </c>
-      <c r="J13">
-        <v>0.4554607463941522</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>40.49986733849</v>
-      </c>
-      <c r="N13">
-        <v>40.49986733849</v>
-      </c>
-      <c r="O13">
-        <v>0.04047708351430798</v>
-      </c>
-      <c r="P13">
-        <v>0.04047708351430798</v>
-      </c>
-      <c r="Q13">
-        <v>21.83946496735589</v>
-      </c>
-      <c r="R13">
-        <v>21.83946496735589</v>
-      </c>
-      <c r="S13">
-        <v>0.01843572266928515</v>
-      </c>
-      <c r="T13">
-        <v>0.01843572266928515</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5628626666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.688588</v>
+      </c>
+      <c r="I17">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="J17">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>313.5339353333333</v>
+      </c>
+      <c r="N17">
+        <v>940.601806</v>
+      </c>
+      <c r="O17">
+        <v>0.3031189239008312</v>
+      </c>
+      <c r="P17">
+        <v>0.3031189239008312</v>
+      </c>
+      <c r="Q17">
+        <v>176.4765469322142</v>
+      </c>
+      <c r="R17">
+        <v>1588.288922389928</v>
+      </c>
+      <c r="S17">
+        <v>0.1326137978464521</v>
+      </c>
+      <c r="T17">
+        <v>0.1326137978464521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5628626666666666</v>
+      </c>
+      <c r="H18">
+        <v>1.688588</v>
+      </c>
+      <c r="I18">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="J18">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>219.6913653333333</v>
+      </c>
+      <c r="N18">
+        <v>659.0740959999999</v>
+      </c>
+      <c r="O18">
+        <v>0.2123936287130977</v>
+      </c>
+      <c r="P18">
+        <v>0.2123936287130977</v>
+      </c>
+      <c r="Q18">
+        <v>123.6560677351609</v>
+      </c>
+      <c r="R18">
+        <v>1112.904609616448</v>
+      </c>
+      <c r="S18">
+        <v>0.0929217001022611</v>
+      </c>
+      <c r="T18">
+        <v>0.0929217001022611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5628626666666666</v>
+      </c>
+      <c r="H19">
+        <v>1.688588</v>
+      </c>
+      <c r="I19">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="J19">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>42.666292</v>
+      </c>
+      <c r="N19">
+        <v>127.998876</v>
+      </c>
+      <c r="O19">
+        <v>0.04124899751004298</v>
+      </c>
+      <c r="P19">
+        <v>0.04124899751004298</v>
+      </c>
+      <c r="Q19">
+        <v>24.01526289189867</v>
+      </c>
+      <c r="R19">
+        <v>216.1373660270879</v>
+      </c>
+      <c r="S19">
+        <v>0.01804633688576725</v>
+      </c>
+      <c r="T19">
+        <v>0.01804633688576725</v>
       </c>
     </row>
   </sheetData>
